--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.67219018552098</v>
+        <v>97.21877616127887</v>
       </c>
       <c r="D2" t="n">
-        <v>23.70751594299775</v>
+        <v>23.85138552411559</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.51644058942814</v>
+        <v>90.71227299057045</v>
       </c>
       <c r="D3" t="n">
-        <v>19.66918069213076</v>
+        <v>23.64315483219213</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>95.81176059843237</v>
+        <v>89.11157896848258</v>
       </c>
       <c r="D4" t="n">
-        <v>25.6052024981866</v>
+        <v>22.32336088214551</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.54846044339845</v>
+        <v>90.15481524020861</v>
       </c>
       <c r="D5" t="n">
-        <v>24.16449910966976</v>
+        <v>23.26890320532208</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.32989811452117</v>
+        <v>88.88860217253873</v>
       </c>
       <c r="D6" t="n">
-        <v>22.41175147861412</v>
+        <v>24.15265824476565</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.84108228059864</v>
+        <v>81.99239479855986</v>
       </c>
       <c r="D7" t="n">
-        <v>24.38624612723722</v>
+        <v>23.32051190960652</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.97859852616013</v>
+        <v>86.5603276769679</v>
       </c>
       <c r="D8" t="n">
-        <v>23.30729764691213</v>
+        <v>23.75316228257773</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.36042730677451</v>
+        <v>84.29132273388802</v>
       </c>
       <c r="D9" t="n">
-        <v>23.99367369067038</v>
+        <v>23.46134137115556</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.54480702145671</v>
+        <v>87.4126370196018</v>
       </c>
       <c r="D10" t="n">
-        <v>23.88485277026323</v>
+        <v>21.38969212397253</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.20272986888152</v>
+        <v>81.68517797364626</v>
       </c>
       <c r="D11" t="n">
-        <v>21.55688274432873</v>
+        <v>23.1424712131055</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.14417900323923</v>
+        <v>82.48134479034916</v>
       </c>
       <c r="D12" t="n">
-        <v>23.15389539685221</v>
+        <v>23.76884779521761</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.47222586616712</v>
+        <v>83.19960581185262</v>
       </c>
       <c r="D13" t="n">
-        <v>20.45719973218735</v>
+        <v>23.52576528763834</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.94148023684983</v>
+        <v>79.67607249112346</v>
       </c>
       <c r="D14" t="n">
-        <v>25.86096248559821</v>
+        <v>25.44364362589009</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.70718759713661</v>
+        <v>76.8928594466669</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5447557836307</v>
+        <v>24.83952773872645</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.04862116158994</v>
+        <v>81.2792505570998</v>
       </c>
       <c r="D16" t="n">
-        <v>22.30159947408213</v>
+        <v>21.30798445623545</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.46559857246594</v>
+        <v>77.02638015839706</v>
       </c>
       <c r="D17" t="n">
-        <v>22.03803488259925</v>
+        <v>21.90965227604081</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.16753040908615</v>
+        <v>74.3289078645318</v>
       </c>
       <c r="D18" t="n">
-        <v>22.76268601424216</v>
+        <v>22.99739370086347</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.22826653683887</v>
+        <v>76.8182798789924</v>
       </c>
       <c r="D19" t="n">
-        <v>26.64689489908276</v>
+        <v>21.37703450054959</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>77.73770968295975</v>
+        <v>75.95236628096411</v>
       </c>
       <c r="D20" t="n">
-        <v>23.13738746788491</v>
+        <v>22.07338091148343</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>66.59226629454446</v>
+        <v>74.85120216251677</v>
       </c>
       <c r="D21" t="n">
-        <v>22.82011759270224</v>
+        <v>22.14666812993896</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>74.11797284480252</v>
+        <v>69.92050522456732</v>
       </c>
       <c r="D22" t="n">
-        <v>24.24913317500813</v>
+        <v>25.05775386068067</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.06532690770482</v>
+        <v>74.0743125566521</v>
       </c>
       <c r="D23" t="n">
-        <v>23.56635604102364</v>
+        <v>22.94441798272997</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.18994478401352</v>
+        <v>67.40760731222609</v>
       </c>
       <c r="D24" t="n">
-        <v>19.88284157703438</v>
+        <v>23.68096520684347</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.61350155727695</v>
+        <v>67.40095225272702</v>
       </c>
       <c r="D25" t="n">
-        <v>24.18579943057636</v>
+        <v>23.79622654200571</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.91491444390803</v>
+        <v>69.1433902250788</v>
       </c>
       <c r="D26" t="n">
-        <v>26.52862836743714</v>
+        <v>22.31823955406426</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.22168865399406</v>
+        <v>65.42831485946472</v>
       </c>
       <c r="D27" t="n">
-        <v>19.76959155475475</v>
+        <v>23.23156789425571</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>71.40533302154208</v>
+        <v>67.62669365597634</v>
       </c>
       <c r="D28" t="n">
-        <v>23.5103166411619</v>
+        <v>23.57863056034396</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.47295626473237</v>
+        <v>62.7532993720379</v>
       </c>
       <c r="D29" t="n">
-        <v>24.93989199089555</v>
+        <v>19.70147238344698</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.32914458001852</v>
+        <v>63.69787293017971</v>
       </c>
       <c r="D30" t="n">
-        <v>24.02471260378702</v>
+        <v>25.92465726017673</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.77527434273508</v>
+        <v>59.71066957399241</v>
       </c>
       <c r="D31" t="n">
-        <v>23.27262715276632</v>
+        <v>21.3352817448941</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>64.0712481152699</v>
+        <v>56.96351132899552</v>
       </c>
       <c r="D32" t="n">
-        <v>24.44670337205374</v>
+        <v>20.48276802581344</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.67673034249093</v>
+        <v>60.68467388111778</v>
       </c>
       <c r="D33" t="n">
-        <v>21.486852060114</v>
+        <v>24.2061452451593</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>62.12994908410113</v>
+        <v>64.12250380967929</v>
       </c>
       <c r="D34" t="n">
-        <v>24.49224401293366</v>
+        <v>21.91127470204079</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.9220033844238</v>
+        <v>58.00846798563241</v>
       </c>
       <c r="D35" t="n">
-        <v>23.10780465993922</v>
+        <v>24.77505709139798</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.97557958470279</v>
+        <v>55.0187423821639</v>
       </c>
       <c r="D36" t="n">
-        <v>23.17556750746327</v>
+        <v>21.28978750187116</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.54550420832044</v>
+        <v>58.22422740720389</v>
       </c>
       <c r="D37" t="n">
-        <v>25.09288473320349</v>
+        <v>23.77847211347763</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.00209143629036</v>
+        <v>58.42566254867843</v>
       </c>
       <c r="D38" t="n">
-        <v>24.27629355746714</v>
+        <v>24.81136636036808</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.91587865743534</v>
+        <v>51.52406043897301</v>
       </c>
       <c r="D39" t="n">
-        <v>21.77956708615086</v>
+        <v>20.37353610204037</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.95604991106902</v>
+        <v>48.95231349268234</v>
       </c>
       <c r="D40" t="n">
-        <v>23.11623846068916</v>
+        <v>25.53174558005038</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.27741395583945</v>
+        <v>54.64804854022488</v>
       </c>
       <c r="D41" t="n">
-        <v>24.89445200275184</v>
+        <v>22.24749376623318</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.8712440747506</v>
+        <v>48.4805287171509</v>
       </c>
       <c r="D42" t="n">
-        <v>29.09973556084481</v>
+        <v>17.66920653061762</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.54507467280992</v>
+        <v>49.3775947743945</v>
       </c>
       <c r="D43" t="n">
-        <v>22.07893066403312</v>
+        <v>21.94948035865846</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19108231102658</v>
+        <v>49.33148104480653</v>
       </c>
       <c r="D44" t="n">
-        <v>24.17851022061558</v>
+        <v>23.40914192573566</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>51.02350381913117</v>
+        <v>50.24453491296478</v>
       </c>
       <c r="D45" t="n">
-        <v>20.29068952807615</v>
+        <v>24.51665901170634</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.65222127705398</v>
+        <v>44.86308018947541</v>
       </c>
       <c r="D46" t="n">
-        <v>23.31819508079137</v>
+        <v>21.01448251803899</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.62095158150211</v>
+        <v>43.9791508877684</v>
       </c>
       <c r="D47" t="n">
-        <v>25.57823483624621</v>
+        <v>23.26423629222988</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.30799156772085</v>
+        <v>44.17821790630692</v>
       </c>
       <c r="D48" t="n">
-        <v>25.75191057475196</v>
+        <v>21.95538389166391</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.71965300186676</v>
+        <v>42.70784269496543</v>
       </c>
       <c r="D49" t="n">
-        <v>24.79938617365444</v>
+        <v>21.64520543985091</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.53814600653288</v>
+        <v>39.13318867097986</v>
       </c>
       <c r="D50" t="n">
-        <v>24.01719910392296</v>
+        <v>23.92997607325229</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.14518604850084</v>
+        <v>42.46637580250295</v>
       </c>
       <c r="D51" t="n">
-        <v>23.26436389818409</v>
+        <v>22.91394861939385</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>36.97494150817553</v>
+        <v>41.07839832026782</v>
       </c>
       <c r="D52" t="n">
-        <v>22.8848830276657</v>
+        <v>21.56510336405525</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.63388402151916</v>
+        <v>37.01042270947247</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3499414042737</v>
+        <v>24.31035360433589</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.9805412048769</v>
+        <v>35.95016732869758</v>
       </c>
       <c r="D54" t="n">
-        <v>25.01002630014414</v>
+        <v>24.24258357391539</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.10780209337307</v>
+        <v>36.20027507020404</v>
       </c>
       <c r="D55" t="n">
-        <v>24.79012446381921</v>
+        <v>26.02581327464635</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.0636294255677</v>
+        <v>36.37533968064567</v>
       </c>
       <c r="D56" t="n">
-        <v>25.86322063630018</v>
+        <v>23.50293011907708</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.19589798174539</v>
+        <v>36.62693619362188</v>
       </c>
       <c r="D57" t="n">
-        <v>21.25916414869662</v>
+        <v>27.50784602272191</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>39.19978686700735</v>
+        <v>31.49192444031592</v>
       </c>
       <c r="D58" t="n">
-        <v>26.23111997086325</v>
+        <v>21.93185409927403</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.25325985098561</v>
+        <v>33.41650662436354</v>
       </c>
       <c r="D59" t="n">
-        <v>23.75899195658499</v>
+        <v>24.58301010913444</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>34.47645501720288</v>
+        <v>30.26874209774199</v>
       </c>
       <c r="D60" t="n">
-        <v>23.71118861207021</v>
+        <v>23.92756742726504</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.99228579048814</v>
+        <v>32.81270683148871</v>
       </c>
       <c r="D61" t="n">
-        <v>26.07227022117302</v>
+        <v>24.02855740961964</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.36827022529961</v>
+        <v>32.2360514759042</v>
       </c>
       <c r="D62" t="n">
-        <v>21.7867746316809</v>
+        <v>20.59055332742695</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>25.51623493624123</v>
+        <v>27.48178368359088</v>
       </c>
       <c r="D63" t="n">
-        <v>24.17480827111822</v>
+        <v>24.78853190137273</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.63489139098602</v>
+        <v>25.41345111025634</v>
       </c>
       <c r="D64" t="n">
-        <v>24.08181211677271</v>
+        <v>23.24242912287889</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.7312108553671</v>
+        <v>26.61359433433702</v>
       </c>
       <c r="D65" t="n">
-        <v>22.44776051026083</v>
+        <v>23.31191615842283</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.6928248497498</v>
+        <v>25.09175556207125</v>
       </c>
       <c r="D66" t="n">
-        <v>22.00993340619532</v>
+        <v>23.74746982903647</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>21.17643786068278</v>
+        <v>24.58119042771308</v>
       </c>
       <c r="D67" t="n">
-        <v>25.02722034496465</v>
+        <v>21.81618648860549</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.77498943461773</v>
+        <v>25.87951631433701</v>
       </c>
       <c r="D68" t="n">
-        <v>23.61586078323581</v>
+        <v>21.97600004588447</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>19.93895021454011</v>
+        <v>21.63193262279406</v>
       </c>
       <c r="D69" t="n">
-        <v>25.1121638524359</v>
+        <v>24.882354083206</v>
       </c>
     </row>
   </sheetData>
